--- a/Calculations.xlsx
+++ b/Calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\[[ COLLEGE ]]\[[ BCNS ]]\Current Assignments\Adv Comnet Assignment\plotting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA8AA03-14B8-4C2B-AE15-2B0E1C2A2FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9408449E-E1AE-4656-8661-B0B787FC74CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,10 +32,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,10 +347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,163 +524,163 @@
         <v>79.400000000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>-37</v>
       </c>
-      <c r="B21">
+      <c r="B10">
         <v>-35</v>
       </c>
-      <c r="C21">
+      <c r="C10">
         <v>-29</v>
       </c>
-      <c r="D21">
+      <c r="D10">
         <v>-34</v>
       </c>
-      <c r="E21">
+      <c r="E10">
         <v>-30</v>
       </c>
-      <c r="G21">
+      <c r="G10">
         <v>-33</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>-39</v>
       </c>
-      <c r="B22">
+      <c r="B11">
         <v>-38</v>
       </c>
-      <c r="C22">
+      <c r="C11">
         <v>-37</v>
       </c>
-      <c r="D22">
+      <c r="D11">
         <v>-29</v>
       </c>
-      <c r="E22">
+      <c r="E11">
         <v>-37</v>
       </c>
-      <c r="G22">
+      <c r="G11">
         <v>-36</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>-39</v>
       </c>
-      <c r="B23">
+      <c r="B12">
         <v>-35</v>
       </c>
-      <c r="C23">
+      <c r="C12">
         <v>-40</v>
       </c>
-      <c r="D23">
+      <c r="D12">
         <v>-40</v>
       </c>
-      <c r="E23">
+      <c r="E12">
         <v>-40</v>
       </c>
-      <c r="G23">
+      <c r="G12">
         <v>-38.799999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>-36</v>
       </c>
-      <c r="B24">
+      <c r="B13">
         <v>-39</v>
       </c>
-      <c r="C24">
+      <c r="C13">
         <v>-43</v>
       </c>
-      <c r="D24">
+      <c r="D13">
         <v>-46</v>
       </c>
-      <c r="E24">
+      <c r="E13">
         <v>-40</v>
       </c>
-      <c r="G24">
+      <c r="G13">
         <v>-40.799999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>-48</v>
       </c>
-      <c r="B25">
+      <c r="B14">
         <v>-44</v>
       </c>
-      <c r="C25">
+      <c r="C14">
         <v>-46</v>
       </c>
-      <c r="D25">
+      <c r="D14">
         <v>-47</v>
       </c>
-      <c r="E25">
+      <c r="E14">
         <v>-40</v>
       </c>
-      <c r="G25">
+      <c r="G14">
         <v>-45</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>-48</v>
       </c>
-      <c r="B26">
+      <c r="B15">
         <v>-42</v>
       </c>
-      <c r="C26">
+      <c r="C15">
         <v>-45</v>
       </c>
-      <c r="D26">
+      <c r="D15">
         <v>-53</v>
       </c>
-      <c r="E26">
+      <c r="E15">
         <v>-47</v>
       </c>
-      <c r="G26">
+      <c r="G15">
         <v>-47</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>-49</v>
       </c>
-      <c r="B27">
+      <c r="B16">
         <v>-51</v>
       </c>
-      <c r="C27">
+      <c r="C16">
         <v>-52</v>
       </c>
-      <c r="D27">
+      <c r="D16">
         <v>-47</v>
       </c>
-      <c r="E27">
+      <c r="E16">
         <v>-49</v>
       </c>
-      <c r="G27">
+      <c r="G16">
         <v>-49.6</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>-49</v>
       </c>
-      <c r="B28">
+      <c r="B17">
         <v>-55</v>
       </c>
-      <c r="C28">
+      <c r="C17">
         <v>-55</v>
       </c>
-      <c r="D28">
+      <c r="D17">
         <v>-50</v>
       </c>
-      <c r="E28">
+      <c r="E17">
         <v>-53</v>
       </c>
-      <c r="G28">
+      <c r="G17">
         <v>-52.4</v>
       </c>
     </row>
